--- a/Prototype/PHPSCRIPTS/SamanAndrey/Jason/ForecastTemplate.xlsx
+++ b/Prototype/PHPSCRIPTS/SamanAndrey/Jason/ForecastTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jade Ericson\Documents\GitHub\Forecast-Module-2\Prototype\PHPSCRIPTS\JASON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buzon\Documents\SYSADD2\Forecast-Module-2\Prototype\PHPSCRIPTS\SamanAndrey\Jason\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -86,10 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,11 +404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +418,7 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -436,7 +437,7 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1405,5 +1406,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>